--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>856950.4477438758</v>
+        <v>788689.4501072415</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554239</v>
+        <v>332906.6712380807</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.6809952</v>
+        <v>10850698.87543052</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8020643.073145781</v>
+        <v>8069050.887878731</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>212.285385643442</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C2" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>215.4108546636941</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
     </row>
     <row r="3">
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>121.7911906719549</v>
+        <v>189.3309049510881</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>137.0815656650981</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776589</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776589</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776589</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>87.80598074015786</v>
       </c>
     </row>
     <row r="6">
@@ -974,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>36.43923176655728</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>82.02238698788767</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>133.186967585368</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776589</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>241.0142888776589</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776589</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S8" t="n">
-        <v>190.3453970742846</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>102.2133755837553</v>
       </c>
     </row>
     <row r="9">
@@ -1211,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>84.56713651463382</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>66.36293295442228</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>15.80210689897108</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>181.1995336206805</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553087</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T12" t="n">
         <v>196.8897623984489</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>70.80276983270114</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>52.10844059186297</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>181.5196370679651</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>392.2167866975187</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S15" t="n">
-        <v>156.591242632523</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
         <v>196.8897623984489</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>201.140747999192</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>168.7756050755992</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,10 +1861,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>300.3033795584759</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>18.33924013548975</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I18" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
     </row>
     <row r="20">
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>111.8822753849635</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>47.42467801138982</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>201.089163843681</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>25.02169492285067</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>59.0322609154504</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>352.7786754274497</v>
       </c>
     </row>
     <row r="24">
@@ -2481,16 +2481,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>153.6099101250732</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>169.9153508864188</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>147.6979659320285</v>
+        <v>59.72683757586862</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>53.5697052684824</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2888,10 +2888,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250842</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -3009,13 +3009,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="X31" t="n">
-        <v>94.63926978364066</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>46.58646588932503</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>248.3179970212613</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3125,7 +3125,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
         <v>61.42221998250818</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>62.5638668224554</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>59.72683757586862</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3280,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>354.3958624239608</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>47.40419526769258</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364051</v>
       </c>
       <c r="W37" t="n">
-        <v>129.0246247964035</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>56.86248390345399</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.3201705821129</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3565,10 +3565,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>168.7756050755994</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,25 +3742,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>84.95149223441575</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>264.3862503229327</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>235.500096002687</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>43.99240337009294</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>239.2693013921271</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>4.55385834063863</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>155.886038567534</v>
+        <v>189.5968436493441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>749.627473042513</v>
+        <v>266.5980815799443</v>
       </c>
       <c r="C2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>513.6311445709973</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>362.4348659156472</v>
+        <v>304.8224198873415</v>
       </c>
       <c r="C3" t="n">
-        <v>362.4348659156472</v>
+        <v>304.8224198873415</v>
       </c>
       <c r="D3" t="n">
-        <v>362.4348659156472</v>
+        <v>304.8224198873415</v>
       </c>
       <c r="E3" t="n">
-        <v>362.4348659156472</v>
+        <v>304.8224198873415</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>158.2878619142265</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>251.2267644261524</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4543050195419</v>
+        <v>493.3438694636834</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>735.4609745012144</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>977.5780795387454</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="U3" t="n">
-        <v>841.0357507914898</v>
+        <v>787.0075911101371</v>
       </c>
       <c r="V3" t="n">
-        <v>605.8836425597472</v>
+        <v>551.8554828783945</v>
       </c>
       <c r="W3" t="n">
-        <v>362.4348659156472</v>
+        <v>304.8224198873415</v>
       </c>
       <c r="X3" t="n">
-        <v>362.4348659156472</v>
+        <v>304.8224198873415</v>
       </c>
       <c r="Y3" t="n">
-        <v>362.4348659156472</v>
+        <v>304.8224198873415</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>749.6274730425125</v>
+        <v>552.8614515073789</v>
       </c>
       <c r="C5" t="n">
-        <v>749.6274730425125</v>
+        <v>552.8614515073789</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984126</v>
+        <v>552.8614515073789</v>
       </c>
       <c r="E5" t="n">
-        <v>262.7299197543127</v>
+        <v>552.8614515073789</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>563.3128681098024</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>785.5101925369329</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185848</v>
+        <v>950.137187388514</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106358</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424087</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424087</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424087</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424087</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="U5" t="n">
-        <v>749.6274730425125</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="V5" t="n">
-        <v>749.6274730425125</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="W5" t="n">
-        <v>749.6274730425125</v>
+        <v>641.5543613459222</v>
       </c>
       <c r="X5" t="n">
-        <v>749.6274730425125</v>
+        <v>641.5543613459222</v>
       </c>
       <c r="Y5" t="n">
-        <v>749.6274730425125</v>
+        <v>552.8614515073789</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>380.230019520081</v>
+        <v>563.5786708467222</v>
       </c>
       <c r="C6" t="n">
-        <v>205.776990238954</v>
+        <v>389.1256415655952</v>
       </c>
       <c r="D6" t="n">
-        <v>56.84258057770276</v>
+        <v>389.1256415655952</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299843</v>
+        <v>389.1256415655952</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299843</v>
+        <v>242.5910835924801</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299843</v>
+        <v>103.9102586634946</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299843</v>
+        <v>103.9102586634946</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299843</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>154.3302328992135</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363992</v>
+        <v>394.933760794076</v>
       </c>
       <c r="M6" t="n">
-        <v>542.8095319084026</v>
+        <v>655.5433744062259</v>
       </c>
       <c r="N6" t="n">
-        <v>542.8095319084026</v>
+        <v>916.1529880183758</v>
       </c>
       <c r="O6" t="n">
-        <v>781.413677897285</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106358</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106358</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106358</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106358</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106358</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106358</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106358</v>
+        <v>817.8160275749237</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106358</v>
+        <v>563.5786708467222</v>
       </c>
       <c r="X6" t="n">
-        <v>756.2056553051029</v>
+        <v>563.5786708467222</v>
       </c>
       <c r="Y6" t="n">
-        <v>548.4453565401491</v>
+        <v>563.5786708467222</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>54.48163939360296</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>518.2486856454959</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="C8" t="n">
-        <v>518.2486856454959</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="D8" t="n">
-        <v>274.799909001396</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="E8" t="n">
-        <v>31.35113235729607</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="F8" t="n">
-        <v>31.35113235729607</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729607</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729607</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729607</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K8" t="n">
-        <v>122.296149021135</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057932</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686974</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759367</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185848</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106358</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424087</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424087</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S8" t="n">
-        <v>761.6974622895959</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="T8" t="n">
-        <v>761.6974622895959</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="U8" t="n">
-        <v>761.6974622895959</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="V8" t="n">
-        <v>761.6974622895959</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="W8" t="n">
-        <v>761.6974622895959</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="X8" t="n">
-        <v>761.6974622895959</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="Y8" t="n">
-        <v>761.6974622895959</v>
+        <v>858.9304414063566</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>588.0815197256138</v>
+        <v>387.0179774836253</v>
       </c>
       <c r="C9" t="n">
-        <v>413.6284904444868</v>
+        <v>387.0179774836253</v>
       </c>
       <c r="D9" t="n">
-        <v>264.6940807832356</v>
+        <v>387.0179774836253</v>
       </c>
       <c r="E9" t="n">
-        <v>105.4566257777801</v>
+        <v>227.7805224781698</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299843</v>
+        <v>227.7805224781698</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299843</v>
+        <v>89.12578670671599</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>42.78065525324476</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363992</v>
+        <v>288.9361218459458</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950732</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950732</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="O9" t="n">
-        <v>712.0191193839555</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973064</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106358</v>
+        <v>876.4074424435696</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106358</v>
+        <v>641.2553342118269</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106358</v>
+        <v>387.0179774836253</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106358</v>
+        <v>387.0179774836253</v>
       </c>
       <c r="Y9" t="n">
-        <v>756.2968567456819</v>
+        <v>387.0179774836253</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1568.353113282533</v>
+        <v>1731.411330760289</v>
       </c>
       <c r="C11" t="n">
-        <v>1568.353113282533</v>
+        <v>1362.448813819877</v>
       </c>
       <c r="D11" t="n">
-        <v>1210.087414675782</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="E11" t="n">
-        <v>1210.087414675782</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F11" t="n">
-        <v>799.1015098861748</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G11" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018224</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T11" t="n">
-        <v>2681.187366877849</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U11" t="n">
-        <v>2681.187366877849</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V11" t="n">
-        <v>2681.187366877849</v>
+        <v>2084.179986030403</v>
       </c>
       <c r="W11" t="n">
-        <v>2328.418711607735</v>
+        <v>1731.411330760289</v>
       </c>
       <c r="X11" t="n">
-        <v>1954.952953346655</v>
+        <v>1731.411330760289</v>
       </c>
       <c r="Y11" t="n">
-        <v>1954.952953346655</v>
+        <v>1731.411330760289</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170843</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359573</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747061</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692506</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961356</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424017</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430049</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073965</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196744</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.714576167583</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935841</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207639</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002106</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064347</v>
+        <v>578.0123447940986</v>
       </c>
       <c r="E13" t="n">
-        <v>580.2158906240415</v>
+        <v>430.0992512117055</v>
       </c>
       <c r="F13" t="n">
-        <v>433.3259431261312</v>
+        <v>283.2093037137951</v>
       </c>
       <c r="G13" t="n">
-        <v>264.3261428644636</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H13" t="n">
-        <v>106.5777702969937</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K13" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502503</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1194.175505447095</v>
+        <v>1380.123535465744</v>
       </c>
       <c r="C14" t="n">
-        <v>1194.175505447095</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="D14" t="n">
-        <v>835.9098068403448</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E14" t="n">
-        <v>450.1215542421006</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036446</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018223</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W14" t="n">
-        <v>2344.380435748109</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X14" t="n">
-        <v>1970.914677487029</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y14" t="n">
-        <v>1580.775345511217</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="15">
@@ -5348,7 +5348,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
@@ -5360,10 +5360,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
         <v>1313.210296315296</v>
@@ -5372,7 +5372,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
         <v>2525.076107152626</v>
@@ -5442,40 +5442,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502503</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R16" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S16" t="n">
-        <v>484.4236418782193</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T16" t="n">
-        <v>257.1154545468211</v>
+        <v>513.840561024597</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036446</v>
+        <v>513.840561024597</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036446</v>
+        <v>513.840561024597</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036446</v>
+        <v>224.4233909876364</v>
       </c>
       <c r="X16" t="n">
         <v>53.94298182036446</v>
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1595.875667274027</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C17" t="n">
-        <v>1595.875667274027</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D17" t="n">
-        <v>1595.875667274027</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E17" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F17" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5533,34 +5533,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U17" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V17" t="n">
-        <v>2338.783654519953</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W17" t="n">
-        <v>1986.014999249838</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X17" t="n">
-        <v>1986.014999249838</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="Y17" t="n">
-        <v>1595.875667274027</v>
+        <v>1763.586886263858</v>
       </c>
     </row>
     <row r="18">
@@ -5570,31 +5570,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
         <v>309.190302261463</v>
@@ -5615,22 +5615,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5639,7 +5639,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036446</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036446</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W19" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036446</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>750.1002187247734</v>
+        <v>892.8693763960225</v>
       </c>
       <c r="C20" t="n">
-        <v>381.1377017843616</v>
+        <v>892.8693763960225</v>
       </c>
       <c r="D20" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E20" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F20" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018223</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U20" t="n">
-        <v>2584.136691639472</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V20" t="n">
-        <v>2253.073804295901</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W20" t="n">
-        <v>1900.305149025787</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X20" t="n">
-        <v>1526.839390764707</v>
+        <v>1669.608548435956</v>
       </c>
       <c r="Y20" t="n">
-        <v>1136.700058788895</v>
+        <v>1279.469216460144</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
@@ -5843,37 +5843,37 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036446</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036446</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U22" t="n">
-        <v>525.0086166875648</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V22" t="n">
-        <v>525.0086166875648</v>
+        <v>554.7078863246074</v>
       </c>
       <c r="W22" t="n">
-        <v>235.5914466506042</v>
+        <v>554.7078863246074</v>
       </c>
       <c r="X22" t="n">
-        <v>235.5914466506042</v>
+        <v>554.7078863246074</v>
       </c>
       <c r="Y22" t="n">
-        <v>235.5914466506042</v>
+        <v>554.7078863246074</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1268.68094731003</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C23" t="n">
-        <v>1268.68094731003</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D23" t="n">
-        <v>1268.68094731003</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6022,19 +6022,19 @@
         <v>2478.514423990286</v>
       </c>
       <c r="U23" t="n">
-        <v>2418.885877611043</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V23" t="n">
-        <v>2418.885877611043</v>
+        <v>2147.451536646715</v>
       </c>
       <c r="W23" t="n">
-        <v>2418.885877611043</v>
+        <v>2147.451536646715</v>
       </c>
       <c r="X23" t="n">
-        <v>2045.420119349963</v>
+        <v>2147.451536646715</v>
       </c>
       <c r="Y23" t="n">
-        <v>1655.280787374151</v>
+        <v>1791.109440255352</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018223</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018223</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="V25" t="n">
-        <v>2442.464602812336</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="W25" t="n">
-        <v>2153.047432775375</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="X25" t="n">
-        <v>2022.963088632153</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632153</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1199.13500546934</v>
+        <v>1937.315630222944</v>
       </c>
       <c r="C26" t="n">
-        <v>830.1724885289282</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D26" t="n">
-        <v>471.9067899221776</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E26" t="n">
-        <v>471.9067899221776</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733127</v>
@@ -6244,34 +6244,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T26" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U26" t="n">
-        <v>2520.971603332393</v>
+        <v>2310.781388484024</v>
       </c>
       <c r="V26" t="n">
-        <v>2520.971603332393</v>
+        <v>2310.781388484024</v>
       </c>
       <c r="W26" t="n">
-        <v>2349.339935770353</v>
+        <v>2310.781388484024</v>
       </c>
       <c r="X26" t="n">
-        <v>1975.874177509273</v>
+        <v>1937.315630222944</v>
       </c>
       <c r="Y26" t="n">
-        <v>1585.734845533462</v>
+        <v>1937.315630222944</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
         <v>221.4284102424006</v>
@@ -6302,46 +6302,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>500.1394333084171</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C28" t="n">
-        <v>500.1394333084171</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D28" t="n">
-        <v>350.0227938960813</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E28" t="n">
-        <v>350.0227938960813</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F28" t="n">
-        <v>203.132846398171</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6426,10 +6426,10 @@
         <v>728.1289842064344</v>
       </c>
       <c r="X28" t="n">
-        <v>500.1394333084171</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y28" t="n">
-        <v>500.1394333084171</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2050.019976259699</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C29" t="n">
-        <v>1681.057459319287</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D29" t="n">
-        <v>1322.791760712537</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E29" t="n">
-        <v>937.0035081142926</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F29" t="n">
-        <v>526.0176033246851</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G29" t="n">
-        <v>108.0537952228719</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>108.0537952228719</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T29" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U29" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V29" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W29" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X29" t="n">
-        <v>2050.019976259699</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y29" t="n">
-        <v>2050.019976259699</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036446</v>
@@ -6545,10 +6545,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
         <v>1313.210296315296</v>
@@ -6587,7 +6587,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="31">
@@ -6630,7 +6630,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
         <v>529.6040388502502</v>
@@ -6639,28 +6639,28 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>438.9553738610025</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V31" t="n">
-        <v>438.9553738610025</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W31" t="n">
-        <v>149.5382038240419</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X31" t="n">
         <v>53.94298182036446</v>
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1315.737983561873</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C32" t="n">
-        <v>1315.737983561873</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D32" t="n">
-        <v>1315.737983561873</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E32" t="n">
-        <v>929.9497309636286</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F32" t="n">
-        <v>518.9638261740211</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G32" t="n">
-        <v>101.0000180722079</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H32" t="n">
-        <v>101.0000180722079</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036446</v>
@@ -6706,13 +6706,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6727,25 +6727,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V32" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W32" t="n">
-        <v>2465.942913862886</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X32" t="n">
-        <v>2092.477155601806</v>
+        <v>1784.763701299258</v>
       </c>
       <c r="Y32" t="n">
-        <v>1702.337823625995</v>
+        <v>1394.624369323446</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
@@ -6824,7 +6824,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C34" t="n">
-        <v>2697.149091018223</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D34" t="n">
-        <v>2697.149091018223</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E34" t="n">
-        <v>2549.23599743583</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F34" t="n">
-        <v>2486.040172362642</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G34" t="n">
-        <v>2317.040372100975</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1139.146815977588</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="C35" t="n">
-        <v>770.1842990371763</v>
+        <v>892.8693763960225</v>
       </c>
       <c r="D35" t="n">
-        <v>411.9186004304258</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E35" t="n">
-        <v>411.9186004304258</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F35" t="n">
-        <v>411.9186004304258</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733127</v>
@@ -6955,34 +6955,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V35" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W35" t="n">
-        <v>2289.351746278601</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X35" t="n">
-        <v>1915.885988017521</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="Y35" t="n">
-        <v>1525.74665604171</v>
+        <v>1261.831893336434</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
@@ -7037,22 +7037,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7061,7 +7061,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7131,16 +7131,16 @@
         <v>438.9553738610024</v>
       </c>
       <c r="V37" t="n">
-        <v>184.2708856551155</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1167.455337753612</v>
+        <v>1452.061221751177</v>
       </c>
       <c r="C38" t="n">
-        <v>798.4928208132008</v>
+        <v>1452.061221751177</v>
       </c>
       <c r="D38" t="n">
-        <v>798.4928208132008</v>
+        <v>1093.795523144427</v>
       </c>
       <c r="E38" t="n">
-        <v>798.4928208132008</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F38" t="n">
-        <v>798.4928208132008</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G38" t="n">
-        <v>380.5290127113876</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733127</v>
@@ -7192,34 +7192,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2478.514423990286</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U38" t="n">
-        <v>2224.752638628377</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V38" t="n">
-        <v>1893.689751284806</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W38" t="n">
-        <v>1540.921096014692</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X38" t="n">
-        <v>1167.455337753612</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y38" t="n">
-        <v>1167.455337753612</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
         <v>309.190302261463</v>
@@ -7274,28 +7274,28 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7359,25 +7359,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V40" t="n">
-        <v>473.4444960005476</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W40" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1194.175505447095</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C41" t="n">
-        <v>825.2129885066836</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D41" t="n">
-        <v>466.9472898999331</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E41" t="n">
-        <v>466.9472898999331</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F41" t="n">
-        <v>466.9472898999331</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G41" t="n">
-        <v>466.9472898999331</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H41" t="n">
-        <v>139.7525699359359</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W41" t="n">
-        <v>2344.380435748109</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X41" t="n">
-        <v>1970.914677487029</v>
+        <v>2198.886095354873</v>
       </c>
       <c r="Y41" t="n">
-        <v>1580.775345511217</v>
+        <v>1808.746763379062</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C43" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D43" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E43" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F43" t="n">
         <v>53.94298182036446</v>
@@ -7599,22 +7599,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U43" t="n">
-        <v>490.2500993552354</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V43" t="n">
-        <v>490.2500993552354</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W43" t="n">
-        <v>200.8329293182748</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X43" t="n">
-        <v>200.8329293182748</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y43" t="n">
-        <v>200.8329293182748</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1166.959449965771</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C44" t="n">
-        <v>797.9969330253592</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D44" t="n">
-        <v>439.7312344186087</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E44" t="n">
-        <v>53.94298182036446</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036446</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
         <v>53.94298182036446</v>
@@ -7675,25 +7675,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U44" t="n">
-        <v>2224.256750840535</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V44" t="n">
-        <v>1893.193863496965</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W44" t="n">
-        <v>1540.425208226851</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X44" t="n">
-        <v>1166.959449965771</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y44" t="n">
-        <v>1166.959449965771</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="45">
@@ -7836,16 +7836,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U46" t="n">
-        <v>343.3601518573251</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V46" t="n">
-        <v>343.3601518573251</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036446</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X46" t="n">
         <v>53.94298182036446</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>136.5653954824675</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>185.4193833999402</v>
+        <v>384.6945110063436</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>373.8491954283778</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>385.2788254813443</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>133.1450665890762</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9730561082392</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>312.0408247018197</v>
+        <v>392.8337743093847</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221034</v>
+        <v>269.0159391714755</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,22 +8531,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>146.5746030901479</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>241.945311051992</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221034</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747206</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9020,10 +9020,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P15" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9734,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.9065542451758</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.9065542451756</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747119</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170.4484560200386</v>
+        <v>138.1711093023382</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>120.7101594098652</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>415.2879682170718</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>154.3202460147749</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>141.6752062949112</v>
       </c>
     </row>
     <row r="3">
@@ -22637,16 +22637,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U3" t="n">
-        <v>104.1501914090199</v>
+        <v>36.60995724362823</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>7.132250799777211</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6136200195524</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,28 +22746,28 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>149.4414326714929</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22789,25 +22789,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.668752743024</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946028</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640525</v>
+        <v>143.6340117900448</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>151.9681874521648</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.99893476574641</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>298.4319579158957</v>
       </c>
     </row>
     <row r="6">
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>121.2058486888437</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>5.669952900401967</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180146</v>
+        <v>15.59235192972142</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858216</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.668752743024</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946028</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>18.67467251196069</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>284.0245630722983</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>60.50207587875006</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>45.14499414902217</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I10" t="n">
-        <v>22.26350734189026</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,28 +23220,28 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>111.3918043887131</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>200.6462134586867</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>146.5527248494544</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,16 +23430,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>96.50703242634977</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>82.85718120047525</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>201.2142045955155</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>14.65925904419277</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23676,7 +23676,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,28 +23697,28 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>85.1411262427857</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>56.93405031343792</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23734,13 +23734,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
@@ -23791,16 +23791,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>27.44887891165905</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>351.3918605429793</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23892,16 +23892,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.3098022590509</v>
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>56.93405031343778</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
@@ -23952,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>158.8578157762263</v>
       </c>
     </row>
     <row r="20">
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>139.3418921233257</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>322.3064226670792</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24150,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24183,13 +24183,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>85.19271039829678</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>227.1159484009773</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24226,7 +24226,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>192.1919065928389</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>33.45926322860385</v>
       </c>
     </row>
     <row r="24">
@@ -24369,16 +24369,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24417,19 +24417,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>165.3712490426387</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>96.92615468724728</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24454,13 +24454,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>97.61425738321611</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>179.3256178309942</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24603,19 +24603,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>19.61183632702244</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24666,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>98.36161097637881</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24861,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801578</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="X31" t="n">
-        <v>131.0703856053965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>105.3448503555362</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>121.4131036572078</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>82.85718120047585</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
         <v>45.19995918853699</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>59.38830759683424</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>322.3269054107765</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="W37" t="n">
-        <v>157.4983735401875</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>325.0678861688078</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.6026021822442544</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25453,10 +25453,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25599,16 +25599,16 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>117.5062691663784</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>89.80115265030449</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>66.9798240104455</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
@@ -25690,10 +25690,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>105.3448503555363</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25839,22 +25839,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>50.78177823929073</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>242.5305949664981</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>11.95486611616215</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>323.1984001294963</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26076,19 +26076,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3958356744438</v>
+        <v>96.68503059263364</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>448693.3607796695</v>
+        <v>451768.8547570534</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>448693.3607796695</v>
+        <v>467732.0967585469</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>448693.3607796695</v>
+        <v>477924.5134908578</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>775112.3260770597</v>
+        <v>775112.3260770596</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>775112.3260770597</v>
+        <v>775112.3260770596</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>775112.3260770595</v>
+        <v>775112.3260770594</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>775112.3260770595</v>
+        <v>775112.3260770597</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>775112.3260770595</v>
+        <v>775112.3260770596</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>775112.3260770596</v>
+        <v>775112.3260770595</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>775112.3260770594</v>
+        <v>775112.3260770595</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>775112.3260770595</v>
+        <v>775112.3260770596</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>775112.3260770595</v>
+        <v>775112.3260770597</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141236.5716516325</v>
+        <v>142222.1657638405</v>
       </c>
       <c r="C2" t="n">
-        <v>141236.5716516325</v>
+        <v>147339.127997248</v>
       </c>
       <c r="D2" t="n">
-        <v>141236.5716516325</v>
+        <v>150604.5581398032</v>
       </c>
       <c r="E2" t="n">
-        <v>245779.718513394</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="F2" t="n">
-        <v>245779.718513394</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="G2" t="n">
         <v>245779.7185133939</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>85498.77860120904</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23645.34018189509</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>14295.33970214145</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.1740429964</v>
+        <v>394217.2929137604</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63988.37154589876</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4807.454491750033</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3268.5385945816</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740582</v>
+        <v>99215.7776788445</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8547.111069342402</v>
+        <v>8552.584737532374</v>
       </c>
       <c r="C4" t="n">
-        <v>8547.111069342402</v>
+        <v>8577.315374774351</v>
       </c>
       <c r="D4" t="n">
-        <v>8547.111069342402</v>
+        <v>8599.193178783524</v>
       </c>
       <c r="E4" t="n">
         <v>9371.018034361485</v>
       </c>
       <c r="F4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="G4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="H4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="I4" t="n">
         <v>9371.018034361485</v>
       </c>
       <c r="J4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="K4" t="n">
         <v>9371.018034361485</v>
@@ -26459,7 +26459,7 @@
         <v>9371.018034361483</v>
       </c>
       <c r="P4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
     </row>
     <row r="5">
@@ -26469,43 +26469,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>48577.10433863014</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376166</v>
+        <v>50134.40740683334</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376166</v>
+        <v>51181.37951678014</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="G5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="H5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="I5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="J5" t="n">
         <v>49231.47806340947</v>
       </c>
-      <c r="H5" t="n">
+      <c r="K5" t="n">
         <v>49231.47806340947</v>
-      </c>
-      <c r="I5" t="n">
-        <v>49231.47806340947</v>
-      </c>
-      <c r="J5" t="n">
-        <v>49231.47806340946</v>
-      </c>
-      <c r="K5" t="n">
-        <v>49231.47806340948</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="N5" t="n">
         <v>49231.47806340946</v>
-      </c>
-      <c r="N5" t="n">
-        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
         <v>49231.47806340947</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3638.760286980752</v>
+        <v>-12566.336409324</v>
       </c>
       <c r="C6" t="n">
-        <v>84408.19181852844</v>
+        <v>53123.02831638802</v>
       </c>
       <c r="D6" t="n">
-        <v>84408.19181852839</v>
+        <v>64861.69315077357</v>
       </c>
       <c r="E6" t="n">
-        <v>-245668.9516273733</v>
+        <v>-213108.4842439567</v>
       </c>
       <c r="F6" t="n">
-        <v>187177.222415623</v>
+        <v>181108.8086698038</v>
       </c>
       <c r="G6" t="n">
-        <v>187177.2224156229</v>
+        <v>181108.8086698038</v>
       </c>
       <c r="H6" t="n">
-        <v>187177.2224156229</v>
+        <v>181108.8086698037</v>
       </c>
       <c r="I6" t="n">
-        <v>187177.222415623</v>
+        <v>181108.8086698038</v>
       </c>
       <c r="J6" t="n">
-        <v>124117.2798165167</v>
+        <v>117120.437123905</v>
       </c>
       <c r="K6" t="n">
-        <v>187177.222415623</v>
+        <v>176301.3541780537</v>
       </c>
       <c r="L6" t="n">
-        <v>187177.222415623</v>
+        <v>177840.2700752221</v>
       </c>
       <c r="M6" t="n">
-        <v>79203.86174156469</v>
+        <v>81893.03099095928</v>
       </c>
       <c r="N6" t="n">
-        <v>187177.222415623</v>
+        <v>181108.8086698038</v>
       </c>
       <c r="O6" t="n">
-        <v>187177.2224156229</v>
+        <v>181108.8086698037</v>
       </c>
       <c r="P6" t="n">
-        <v>187177.2224156229</v>
+        <v>181108.8086698038</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170867</v>
@@ -26764,7 +26764,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
         <v>377.7436642170867</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776589</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776589</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="G4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="H4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="I4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="J4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="H4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="I4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545557</v>
@@ -26822,10 +26822,10 @@
         <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="N4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="N4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545557</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>19.33951979354706</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>12.00787803233596</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170869</v>
+        <v>342.7224034979613</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>12.91447975068888</v>
       </c>
       <c r="E4" t="n">
-        <v>433.272983876897</v>
+        <v>398.1307590522002</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>244.5627323611425</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>12.91447975068888</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768969</v>
+        <v>398.1307590522002</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>12.91447975068888</v>
       </c>
       <c r="M4" t="n">
-        <v>433.272983876897</v>
+        <v>398.1307590522002</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.09251611130367583</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.9474806248887704</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3.566727381034966</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>7.852189301760364</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>11.76839629324496</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>14.59973623455484</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>16.24501962895158</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>16.50788103019315</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>15.58792394841722</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>13.30393245060773</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544831</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>5.811515176679532</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.108210886332515</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.4049892772318412</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.007401288904294065</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.04950048351498094</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.4780704592104738</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.70429296312544</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>4.676710155246511</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>7.993242550750233</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>10.74790103688215</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>12.54229356430021</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>12.87425075418796</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>11.77742425104022</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>9.452421277522983</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>6.318693299210549</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>3.073372125605572</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.9194497705523865</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.1995216857467871</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.003256610757564536</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.04149954254994806</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.3689686601259021</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1.248004425047529</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.934017658281328</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>4.821492307166691</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>6.16985017147137</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>6.505241928988675</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>6.350561815847965</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>5.865771705150842</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>5.019181037131898</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.475020785705196</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.865970340473119</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.7232238460750037</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.1773162272588689</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.002263611411815351</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,46 +31755,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31931,28 +31931,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,46 +31992,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32168,28 +32168,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32408,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -33180,7 +33180,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33189,34 +33189,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,40 +33253,40 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L30" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M30" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N30" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O30" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
@@ -33295,7 +33295,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,25 +33356,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>234.0017634719808</v>
       </c>
       <c r="M3" t="n">
-        <v>43.28534947792188</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.6796463695193301</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>27.59002526031614</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M4" t="n">
-        <v>39.58387696184059</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N4" t="n">
-        <v>44.13217237922859</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O4" t="n">
-        <v>24.58512791403967</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9067907798014</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776589</v>
+        <v>138.1971189780713</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35099,19 +35099,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.59002526031614</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M7" t="n">
-        <v>39.58387696184059</v>
+        <v>46.08911889082926</v>
       </c>
       <c r="N7" t="n">
-        <v>44.13217237922859</v>
+        <v>50.48273419507656</v>
       </c>
       <c r="O7" t="n">
-        <v>24.58512791403967</v>
+        <v>30.45089961919052</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.297740302025386</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>20.8971052091478</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997366</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776589</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>27.59002526031614</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M10" t="n">
-        <v>39.58387696184059</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N10" t="n">
-        <v>44.13217237922859</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O10" t="n">
-        <v>24.58512791403967</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338904</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535713</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,10 +35570,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
         <v>146.3614835535656</v>
@@ -35582,10 +35582,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245899</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P15" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35807,10 +35807,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
         <v>146.3614835535656</v>
@@ -35819,10 +35819,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35974,13 +35974,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
         <v>130.3926104730631</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36211,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36454,10 +36454,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36837,22 +36837,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355125</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37004,10 +37004,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O31" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355123</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
